--- a/g0odlike/evidence.xlsx
+++ b/g0odlike/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,7 @@
     <sheet name="B2" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="B5" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="B6" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="B7" sheetId="26" state="visible" r:id="rId27"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -308,6 +309,24 @@
   </si>
   <si>
     <t xml:space="preserve">The Internal Transfer TxHash on IRISnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">558BB5B3FCE67C4FE79FDC5FBA30900DB21BBB9FED0B9E2E018712903780B77C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0EF5E588A87C3AE1339D21BB09F72FADA8E4CCD7D58EA974E02580DFDDA1FBB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316E5283620E428BC9FD15096E0D4ED897C285561C018ADD3FFC93C67F69D697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7A77ABF82D43E7BD2B656205B3D6290405643E329B1109543D5CFC8B612A1666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A416C40C2EA2D46051F5859586CF56BD1E7F08976DEE0EE208E807DFF646BDC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01D73A853E9D83C1609451B29A6DD3725443F17414510521620C4CFF1B6E48BF</t>
   </si>
 </sst>
 </file>
@@ -540,7 +559,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1521,12 +1540,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1566,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1563,12 +1582,54 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
